--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/QualityControl/NumberOfComplaintsAgainstDriversReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/QualityControl/NumberOfComplaintsAgainstDriversReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F725E5-B29A-41C0-B937-D9F82EF445B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4A1C7C-46BF-47C8-9D31-4AD002712785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55487600-94B8-4D29-AD45-C8784008F380}"/>
   </bookViews>
@@ -39,12 +39,6 @@
     <t>Номера рекламаций</t>
   </si>
   <si>
-    <t>Отчет за период с {{StartDate.ToString("dd.MM.yyyy}} по {{EndDate.ToString("dd.MM.yyyy}}</t>
-  </si>
-  <si>
-    <t>Сформирован {{EndDate.ToString("dd.MM.yyyy HH:mm:ss}}</t>
-  </si>
-  <si>
     <t>{{item.DriverFullName}}</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>{{item.ComplaintsList}}</t>
+  </si>
+  <si>
+    <t>Отчет за период с {{StartDate.ToString("dd.MM.yyyy")}} по {{EndDate.ToString("dd.MM.yyyy")}}</t>
+  </si>
+  <si>
+    <t>Сформирован {{CreatedAt.ToString("dd.MM.yyyy HH:mm:ss")}}</t>
   </si>
 </sst>
 </file>
@@ -151,13 +151,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -172,6 +165,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AD412F-474A-47AD-BFF7-6A7BE5E512A4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,45 +503,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
